--- a/biology/Microbiologie/Sulfuricaulis_limicola/Sulfuricaulis_limicola.xlsx
+++ b/biology/Microbiologie/Sulfuricaulis_limicola/Sulfuricaulis_limicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sulfuricaulis limicola est l'espèce type du genre bactérien Sulfuricaulis. Ce sont des bacilles à Gram négatif capables d'oxyder le soufre et qui ont été isolés au Japon. Cette espèce est assignée à la famille Acidiferrobacteraceae de l'embranchement des Pseudomonadota.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de l'espèce Sulfuricaulis limicola est la suivante : li.mi’co.la L. masc. n. limus, boue; L. masc./fem. n. suff. -cola, habitant; du L. masc./fem. n. incola, habitant; N.L. masc./fem. n. limicola, habitant la boue[1],[2].
-Historique
-L'espèce Sulfuricaulis limicola a été décrite en même temps que son genre Sulfuricaulis en 2016, à partir d'une souche de bactérienne isolé d'un lac au Japon[1]. L'étude phylogénique de cette souche sur la base de l'ARN ribosomal 16S a positionné cette souche proche de l'espèce Sulfurifustis variabilis décrite un an auparavant. Le genre Sulfuricaulis et son espèce type Sulfuricaulis limicola ont donc été assignés à la famille Acidiferrobacteraceae et à l'ordre Acidiferrobacterales  dans lesquels figuraient déjà Sulfurifustis et Acidiferrobacter[3],[4].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de l'espèce Sulfuricaulis limicola est la suivante : li.mi’co.la L. masc. n. limus, boue; L. masc./fem. n. suff. -cola, habitant; du L. masc./fem. n. incola, habitant; N.L. masc./fem. n. limicola, habitant la boue,.
 </t>
         </is>
       </c>
@@ -542,15 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lors de sa description de 2016, l'espèce Sulfuricaulis limicola comprend des bactéries gram négatives[1]. Ce sont des bacilles mobiles de 0,3 à 0,5 µm de diamètre pour une longueur de 1,2 à 6,0 μm[1]. Le contenu en bases GC est d'environ 63%. Les bactéries peuvent croître entre 8 °C et 37 °C et étant optimale entre 28 °C et 32 °C[1]. La croissance est possible dans une gamme de pH située entre 6,1 et 9,2 et dans un milieu sans NaCl[1].
-La souche type de cette espèce est la souche HA5 déposée dans des banques de cultures bactériennes sous les numéros DSM 100373 et NBRC 110752[1],[2].
-Gènes séquencés
-Lors de sa description, 3 gènes ont été séquencés : ARNr 16S, cbbL et aprA[1].
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Sulfuricaulis limicola a été décrite en même temps que son genre Sulfuricaulis en 2016, à partir d'une souche de bactérienne isolé d'un lac au Japon. L'étude phylogénique de cette souche sur la base de l'ARN ribosomal 16S a positionné cette souche proche de l'espèce Sulfurifustis variabilis décrite un an auparavant. Le genre Sulfuricaulis et son espèce type Sulfuricaulis limicola ont donc été assignés à la famille Acidiferrobacteraceae et à l'ordre Acidiferrobacterales  dans lesquels figuraient déjà Sulfurifustis et Acidiferrobacter,.
 </t>
         </is>
       </c>
@@ -576,12 +594,85 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de sa description de 2016, l'espèce Sulfuricaulis limicola comprend des bactéries gram négatives. Ce sont des bacilles mobiles de 0,3 à 0,5 µm de diamètre pour une longueur de 1,2 à 6,0 μm. Le contenu en bases GC est d'environ 63%. Les bactéries peuvent croître entre 8 °C et 37 °C et étant optimale entre 28 °C et 32 °C. La croissance est possible dans une gamme de pH située entre 6,1 et 9,2 et dans un milieu sans NaCl.
+La souche type de cette espèce est la souche HA5 déposée dans des banques de cultures bactériennes sous les numéros DSM 100373 et NBRC 110752,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sulfuricaulis_limicola</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sulfuricaulis_limicola</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gènes séquencés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de sa description, 3 gènes ont été séquencés : ARNr 16S, cbbL et aprA.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sulfuricaulis_limicola</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sulfuricaulis_limicola</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La souche type HA5 de cette espèce a été isolée des sédiments du lac Harutori (ja) au Japon[1]. Des séquences nucléotidiques de clones de souches non cultivées et isolées de sédiments légèrement alcalins d'un réservoir eutrophe en Chine[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La souche type HA5 de cette espèce a été isolée des sédiments du lac Harutori (ja) au Japon. Des séquences nucléotidiques de clones de souches non cultivées et isolées de sédiments légèrement alcalins d'un réservoir eutrophe en Chine.
 </t>
         </is>
       </c>
